--- a/Interface/FittedValues.xlsx
+++ b/Interface/FittedValues.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liamy\OneDrive\Documents\PhD\Code\ionion\Double Layer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liamy\OneDrive\Documents\PhD\Code\ionion\Interface\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{991EF51D-E32E-4D90-B8EF-02BC6C5B1195}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27716288-0725-469F-A6BD-E9DBE013C28B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39390" yWindow="6060" windowWidth="14400" windowHeight="7365" xr2:uid="{5DD1D668-6673-4CF5-87D5-5831091DDD45}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{5DD1D668-6673-4CF5-87D5-5831091DDD45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,29 +385,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>2.1035440805961363E-3</v>
+        <v>-2.5066448545512108</v>
       </c>
       <c r="B1">
-        <v>4.6541973017968216E-3</v>
+        <v>-2.3976689494222989</v>
       </c>
       <c r="C1">
-        <v>2.9458482305755669E-3</v>
+        <v>-1.3796311342191312</v>
       </c>
       <c r="D1">
-        <v>2.9962626451709171E-4</v>
+        <v>-4.0817734065672422</v>
       </c>
       <c r="E1">
-        <v>0.18619004024943328</v>
+        <v>5.6431505546833058E-2</v>
       </c>
       <c r="F1">
-        <v>1.1614857299794474E-3</v>
+        <v>-3.5713245691294726</v>
       </c>
     </row>
   </sheetData>
